--- a/backend/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>d015a9d2-d723-485e-85bd-e8502abd797b</t>
+    <t>5a98d7d3-1d72-42ee-ba2a-a62ac715adcc</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/backend/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>5a98d7d3-1d72-42ee-ba2a-a62ac715adcc</t>
+    <t>71c83e5e-4ca0-47cd-9124-86bd4a5b421c</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/backend/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>71c83e5e-4ca0-47cd-9124-86bd4a5b421c</t>
+    <t>7415de8f-f1f6-49e2-affc-7c528820a3e9</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/backend/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>7415de8f-f1f6-49e2-affc-7c528820a3e9</t>
+    <t>f97845c0-9a26-4e24-9fe9-b1e530002416</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/backend/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>f97845c0-9a26-4e24-9fe9-b1e530002416</t>
+    <t>3f665d90-b495-49cb-9080-a3c31afd6db0</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/backend/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>3f665d90-b495-49cb-9080-a3c31afd6db0</t>
+    <t>4ba2c344-6836-4901-94ba-7830d02b1f40</t>
   </si>
   <si>
     <t>ADOLFO</t>
